--- a/Data/Temp/Yearly-Report-2021-DE767565.xlsx
+++ b/Data/Temp/Yearly-Report-2021-DE767565.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>258932</x:t>
   </x:si>
@@ -35,6 +35,39 @@
   </x:si>
   <x:si>
     <x:t>2017-01-27</x:t>
+  </x:si>
+  <x:si>
+    <x:t>685093</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Support</x:t>
+  </x:si>
+  <x:si>
+    <x:t>155360</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31072</x:t>
+  </x:si>
+  <x:si>
+    <x:t>186432</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-04-16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>555208</x:t>
+  </x:si>
+  <x:si>
+    <x:t>204493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40898.6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>245392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-08-08</x:t>
   </x:si>
   <x:si>
     <x:t>952995</x:t>
@@ -473,137 +506,137 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E6" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
